--- a/openEAR-0.1.0 Kopie/SmileArchivArchive_File_0001.xlsx
+++ b/openEAR-0.1.0 Kopie/SmileArchivArchive_File_0001.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,95 +425,190 @@
       <c r="A1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>134.621236</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.020921</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>0</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.489387</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.015084</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>0</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.144134</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>0</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.062493</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>0</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.250204</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.017776</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>0</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.116824</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>0</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.061541</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0</v>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.213381</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>0</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.023184</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>0</v>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.028959</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.556111</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0</v>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.007935</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0</v>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.939453</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.052612</t>
+        </is>
       </c>
     </row>
   </sheetData>
